--- a/Error-Compensation-Attacks/Error-Compensation-Figures/4Pixels.xlsx
+++ b/Error-Compensation-Attacks/Error-Compensation-Figures/4Pixels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\GitHub\Convolutional-Neural-Networks\Error-Compensation-Attacks\Error-Compensation-Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED589D19-4072-4787-A4B5-77C74DFA114B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36C1961-80D7-4483-9BEE-8C82A9B5D5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1480" windowWidth="28800" windowHeight="15460" xr2:uid="{DF357AD9-D278-4EF2-9327-75C573860A7E}"/>
+    <workbookView xWindow="4450" yWindow="4270" windowWidth="30340" windowHeight="15430" xr2:uid="{DF357AD9-D278-4EF2-9327-75C573860A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Blurred Loss</t>
-  </si>
-  <si>
-    <t>Blurred Precision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blurred Recall </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Baseline Loss</t>
   </si>
@@ -69,6 +60,24 @@
   </si>
   <si>
     <t>Approximated Loss</t>
+  </si>
+  <si>
+    <t>50% Blurred Loss</t>
+  </si>
+  <si>
+    <t>50% Blurred Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% Blurred Recall </t>
+  </si>
+  <si>
+    <t>33% Blurred Loss</t>
+  </si>
+  <si>
+    <t>33% Blurred Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33% Blurred Recall </t>
   </si>
 </sst>
 </file>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D06FA63-D79E-4FE5-8A92-7EDA87C51C52}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,45 +451,54 @@
     <col min="13" max="13" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -503,25 +521,34 @@
         <v>0.52102500200271595</v>
       </c>
       <c r="H2">
+        <v>18.318259447812999</v>
+      </c>
+      <c r="I2">
+        <v>0.38496690243482501</v>
+      </c>
+      <c r="J2">
+        <v>0.346450004726648</v>
+      </c>
+      <c r="K2">
         <v>28.098388582468001</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>0.30842658877372697</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>0.27447499334812098</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>2.0487243533134398</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>0.578283950686454</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>0.49860000610351501</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -544,25 +571,34 @@
         <v>0.46677500009536699</v>
       </c>
       <c r="H3">
+        <v>11.1299141645431</v>
+      </c>
+      <c r="I3">
+        <v>0.47547777369618399</v>
+      </c>
+      <c r="J3">
+        <v>0.43405000865459398</v>
+      </c>
+      <c r="K3">
         <v>2.1514672935008998</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>0.58388331532478299</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>0.48930000513791999</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>2.4735088944435102</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>0.55392219126224496</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>0.49002499133348398</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -585,25 +621,34 @@
         <v>0.41687499731779099</v>
       </c>
       <c r="H4">
+        <v>8.4943393468856794</v>
+      </c>
+      <c r="I4">
+        <v>0.427679743617773</v>
+      </c>
+      <c r="J4">
+        <v>0.36839999258518202</v>
+      </c>
+      <c r="K4">
         <v>23.1318075060844</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>0.36221525445580399</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>0.30717500112950802</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>1.9251006841659499</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>0.57781119644641799</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>0.46157499402761398</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -626,25 +671,34 @@
         <v>0.399199999868869</v>
       </c>
       <c r="H5">
+        <v>2.6946685612201602</v>
+      </c>
+      <c r="I5">
+        <v>0.46212579309940299</v>
+      </c>
+      <c r="J5">
+        <v>0.35057500377297401</v>
+      </c>
+      <c r="K5">
         <v>6.51619952917099</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>0.39498605579137802</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>0.273749999701976</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>1.7145041823387099</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>0.59351797401905004</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>0.41467499732971103</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -667,21 +721,30 @@
         <v>0.35554999858140901</v>
       </c>
       <c r="H6">
+        <v>1.71897548437118</v>
+      </c>
+      <c r="I6">
+        <v>0.59981903433799699</v>
+      </c>
+      <c r="J6">
+        <v>0.450949996709823</v>
+      </c>
+      <c r="K6">
         <v>1.6155045926570799</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>0.61700785160064697</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>0.37484999746084202</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>1.75887843966484</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>0.587301164865493</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>0.40422499924898098</v>
       </c>
     </row>
